--- a/biology/Zoologie/Chenille_(lépidoptère)/Chenille_(lépidoptère).xlsx
+++ b/biology/Zoologie/Chenille_(lépidoptère)/Chenille_(lépidoptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chenille_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Chenille_(lépidoptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille est la larve des lépidoptères, c'est-à-dire des insectes dont l'imago est appelé papillon. Les larves de certains hyménoptères qui ressemblent beaucoup à celles des lépidoptères sont appelées fausses-chenilles. 
 Parmi les quatre stades de développements successifs du lépidoptère (œuf, chenille, chrysalide, papillon), la chenille est l'un des deux stades mobiles et celui qui assure l'essentiel de la croissance de l'animal, la fonction reproductive étant réservée au papillon.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chenille_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Chenille_(lépidoptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles de lépidoptère possèdent un corps métamérisé avec une tête ayant des pièces buccales broyeuses. Les yeux sont réduits à 5 ocelles en arc autour d'une ocelle centrale.
 Après la tête, on trouve 13 segments. Les 3 premiers correspondent au thorax. Les 10 suivants constituent l'abdomen.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chenille_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Chenille_(lépidoptère)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Chenilles comme nourriture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis des millénaires en Afrique du Sud, les peuples de la brousse consomment des larves de papillons de nuit. L'ethnie tswana les prépare bouillies ou grillées. Pour les conserver, elles sont séchées au soleil dans des corbeilles. Avec l'urbanisation et l'exode rural, une industrie s'est constituées dans ce pays pour la mise en conserve de chenilles. Elles sont principalement destinées aux paysans déracinés qui s'entassent dans les banlieues. Dans les faubourgs de Johannesburg, les amateurs de chenilles sont pour la plupart d'anciens ruraux qui dans leur enfance en ont consommé ainsi que bien d'autres insectes. Aujourd'hui citadins pauvres, ils n'ont pas les moyens de s'acheter de la viande. Des industriels ont eu l'idée de leur vendre, séchées ou mijotées, les chenilles qui leur rappellent le village natal. En effet, moins chères que le bœuf et deux fois plus nourrissantes[réf. nécessaire].
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chenille_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Chenille_(lépidoptère)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Chenille » vient du latin canicula, petite chienne, en référence à l'allure de la tête de l'une et de l'autre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Chenille » vient du latin canicula, petite chienne, en référence à l'allure de la tête de l'une et de l'autre.
 Les chenilles, en tant que ravageur possèdent souvent un nom vernaculaire, repris pour nommer le papillon (l'adulte). Exemple non exhaustif de nom :
 Arpenteuse
 Fausse-arpenteuse du chou, papillon nommé Noctuelle du chou (Trichoplusia ni Hübner)
@@ -674,7 +692,7 @@
 Chenille épineuse
 Chenille épineuse du cotonnier (Earias biplaga et Earias insulana)
 Chenille épineuse de l'orme, papillon nommé Morio, (Nymphalis antiopa L., 1758)
-Dans le Nord de la France et en patois picard, on parle ou parlait de carplute ou caplute[2], càrpleuze[3] ou capleuze[4], capluche[5] ou capluque[6], caplure[7] ou càrplu[8], cazèie[9], canilhe[10], cnilhe ou écnilhe[11], chnile ou échnile[12], olin·ne[13], ulin·ne[14], onin·ne[15]. Le mot huelaine (ou honaine, el'holaine, houlaine, houlainne, huelainne...) a aussi désigné la chenille (on en trouve encore des traces dans les lieux-dits ou nom de rues de l'Avesnois)[16].
+Dans le Nord de la France et en patois picard, on parle ou parlait de carplute ou caplute, càrpleuze ou capleuze, capluche ou capluque, caplure ou càrplu, cazèie, canilhe, cnilhe ou écnilhe, chnile ou échnile, olin·ne, ulin·ne, onin·ne. Le mot huelaine (ou honaine, el'holaine, houlaine, houlainne, huelainne...) a aussi désigné la chenille (on en trouve encore des traces dans les lieux-dits ou nom de rues de l'Avesnois).
 </t>
         </is>
       </c>
@@ -685,7 +703,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chenille_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Chenille_(lépidoptère)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -703,9 +721,11 @@
           <t>Culture scientifique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour les besoins de l'entomologie scientifique et parfois de l'agriculture, les naturalistes ont constitué des collections  iconographique et historique de papillons, mais aussi de chenilles dont la forme et l'aspect évolue au rythme de sa croissance[17]. Et divers ouvrages ont été consacrés aux chenilles, dont par exemple une iconographie des chenilles par Philogene Auguste Joseph Duponchel en 1849[18], ou encore un  Catalogue des chenilles européennes connues publié par le naturaliste lépidoptériste Georges Roüast en 1883[19].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les besoins de l'entomologie scientifique et parfois de l'agriculture, les naturalistes ont constitué des collections  iconographique et historique de papillons, mais aussi de chenilles dont la forme et l'aspect évolue au rythme de sa croissance. Et divers ouvrages ont été consacrés aux chenilles, dont par exemple une iconographie des chenilles par Philogene Auguste Joseph Duponchel en 1849, ou encore un  Catalogue des chenilles européennes connues publié par le naturaliste lépidoptériste Georges Roüast en 1883.
 </t>
         </is>
       </c>
@@ -716,7 +736,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chenille_(l%C3%A9pidopt%C3%A8re)</t>
+          <t>Chenille_(lépidoptère)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -734,7 +754,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La chenille se retrouve dans la culture populaire sous diverses formes et via différents supports :
 La chenille d'Alice au pays des merveilles
